--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.441468155709891</v>
+        <v>0.4464577343195686</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4059197812751124</v>
+        <v>0.4088741117479899</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.380921899736433</v>
+        <v>0.3872691521345963</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3318293131510413</v>
+        <v>0.3446937815348304</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003580774588094574</v>
+        <v>0.003640478582334748</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003124020444636956</v>
+        <v>0.003236934634189222</v>
       </c>
     </row>
   </sheetData>
